--- a/GestorReceitas/Novembro/CAF.xlsx
+++ b/GestorReceitas/Novembro/CAF.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="184">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -576,9 +576,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yara Vaz Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -704,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AH143"/>
@@ -712,10 +709,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AE8" activeCellId="0" sqref="AE8"/>
+      <selection pane="bottomLeft" activeCell="AE8" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
@@ -730,10 +727,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="24" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="29" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="31" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,6 +866,9 @@
       <c r="C4" s="1" t="n">
         <v>285738380</v>
       </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -880,34 +880,25 @@
       <c r="C5" s="1" t="n">
         <v>289953316</v>
       </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="U5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -921,12 +912,6 @@
       <c r="C6" s="1" t="n">
         <v>300813775</v>
       </c>
-      <c r="S6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -938,22 +923,34 @@
       <c r="C7" s="1" t="n">
         <v>307498190</v>
       </c>
+      <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1" t="n">
+      <c r="O7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X7" s="1" t="n">
@@ -962,25 +959,19 @@
       <c r="Y7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1005,55 +996,58 @@
       <c r="C9" s="1" t="n">
         <v>285029908</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Y9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1067,16 +1061,10 @@
       <c r="C10" s="1" t="n">
         <v>294314008</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="n">
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="n">
@@ -1085,55 +1073,46 @@
       <c r="K10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,61 +1148,37 @@
       <c r="C13" s="1" t="n">
         <v>303197951</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G13" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="R13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1237,22 +1192,34 @@
       <c r="C14" s="1" t="n">
         <v>289996570</v>
       </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1" t="n">
+      <c r="O14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X14" s="1" t="n">
@@ -1261,25 +1228,19 @@
       <c r="Y14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,6 +1309,9 @@
       <c r="C20" s="1" t="n">
         <v>303282355</v>
       </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
@@ -1359,64 +1323,49 @@
       <c r="C21" s="1" t="n">
         <v>306150352</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="W21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AB21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AD21" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1441,13 +1390,10 @@
       <c r="C23" s="1" t="n">
         <v>297621556</v>
       </c>
-      <c r="Q23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="1" t="n">
+      <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,73 +1429,61 @@
       <c r="C26" s="1" t="n">
         <v>286101386</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G26" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N26" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U26" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB26" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,43 +1508,37 @@
       <c r="C28" s="1" t="n">
         <v>291209890</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1" t="n">
+      <c r="W28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X28" s="1" t="n">
@@ -1619,25 +1547,19 @@
       <c r="Y28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,73 +1595,61 @@
       <c r="C31" s="1" t="n">
         <v>304866814</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1775,16 +1685,10 @@
       <c r="C34" s="1" t="n">
         <v>306021153</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="n">
+      <c r="H34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J34" s="1" t="n">
@@ -1793,46 +1697,46 @@
       <c r="K34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N34" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U34" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Y34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB34" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,73 +1750,61 @@
       <c r="C35" s="1" t="n">
         <v>294437452</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W35" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1937,21 +1829,6 @@
       <c r="C37" s="1" t="n">
         <v>287455114</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -1963,37 +1840,22 @@
       <c r="C38" s="1" t="n">
         <v>290483948</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1" t="n">
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X38" s="1" t="n">
@@ -2002,25 +1864,10 @@
       <c r="Y38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="1" t="n">
+      <c r="AD38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,16 +1881,16 @@
       <c r="C39" s="1" t="n">
         <v>303001879</v>
       </c>
-      <c r="L39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1" t="n">
+      <c r="H39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,28 +1915,28 @@
       <c r="C41" s="1" t="n">
         <v>287525422</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1" t="n">
+      <c r="N41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="1" t="n">
@@ -2098,40 +1945,31 @@
       <c r="R41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2145,55 +1983,43 @@
       <c r="C42" s="1" t="n">
         <v>286049732</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="1" t="n">
+      <c r="Y42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,73 +2110,61 @@
       <c r="C50" s="1" t="n">
         <v>304289027</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,13 +2178,13 @@
       <c r="C51" s="1" t="n">
         <v>295962968</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="n">
+      <c r="G51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="n">
@@ -2379,55 +2193,34 @@
       <c r="K51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,48 +2289,6 @@
       <c r="C57" s="1" t="n">
         <v>290733480</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U57" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
@@ -2560,19 +2311,28 @@
       <c r="C59" s="1" t="n">
         <v>294086803</v>
       </c>
-      <c r="L59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="1" t="n">
+      <c r="I59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,19 +2349,31 @@
       <c r="G60" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="N60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z60" s="1" t="n">
+      <c r="Q60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2615,61 +2387,46 @@
       <c r="C61" s="1" t="n">
         <v>294138170</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" s="1" t="n">
+      <c r="O61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Y61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,64 +2473,52 @@
       <c r="C65" s="1" t="n">
         <v>306151197</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G65" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N65" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="P65" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA65" s="1" t="n">
+      <c r="W65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AB65" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AD65" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2820,70 +2565,49 @@
       <c r="C69" s="1" t="n">
         <v>300369077</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" s="1" t="n">
+      <c r="O69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X69" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Y69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z69" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,70 +2632,58 @@
       <c r="C71" s="1" t="n">
         <v>284684813</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G71" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N71" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T71" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U71" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Y71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB71" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,73 +2697,61 @@
       <c r="C72" s="1" t="n">
         <v>303976047</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G72" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N72" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T72" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U72" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W72" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB72" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH72" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,73 +2798,61 @@
       <c r="C76" s="1" t="n">
         <v>305889605</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G76" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N76" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T76" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U76" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W76" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB76" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH76" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,73 +2866,61 @@
       <c r="C77" s="1" t="n">
         <v>325261180</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH77" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,64 +2934,46 @@
       <c r="C78" s="1" t="n">
         <v>284925683</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G78" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q78" s="1" t="n">
+      <c r="P78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T78" s="1" t="n">
+      <c r="U78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB78" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC78" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3331,14 +2989,62 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>289567882</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,67 +3079,40 @@
       <c r="C83" s="1" t="n">
         <v>290677599</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N83" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="P83" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T83" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X83" s="1" t="n">
+      <c r="W83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA83" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH83" s="1" t="n">
+      <c r="AD83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,73 +3159,61 @@
       <c r="C87" s="1" t="n">
         <v>285654349</v>
       </c>
-      <c r="D87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G87" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N87" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T87" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U87" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W87" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB87" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,61 +3238,58 @@
       <c r="C89" s="1" t="n">
         <v>298838125</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G89" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N89" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T89" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U89" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W89" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y89" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AF89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3639,73 +3303,61 @@
       <c r="C90" s="1" t="n">
         <v>290072883</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,67 +3371,58 @@
       <c r="C91" s="1" t="n">
         <v>300252730</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA91" s="1" t="n">
+      <c r="X91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AB91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,10 +3458,10 @@
       <c r="C94" s="1" t="n">
         <v>292656050</v>
       </c>
-      <c r="M94" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="X94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,6 +3475,12 @@
       <c r="C95" s="1" t="n">
         <v>291519180</v>
       </c>
+      <c r="R95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -3876,16 +3525,7 @@
       <c r="C99" s="1" t="n">
         <v>298986752</v>
       </c>
-      <c r="D99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1" t="n">
+      <c r="I99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J99" s="1" t="n">
@@ -3894,55 +3534,46 @@
       <c r="K99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,25 +3609,28 @@
       <c r="C102" s="1" t="n">
         <v>305302639</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G102" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L102" s="1" t="n">
+      <c r="N102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q102" s="1" t="n">
@@ -4005,7 +3639,10 @@
       <c r="R102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S102" s="1" t="n">
+      <c r="U102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X102" s="1" t="n">
@@ -4014,19 +3651,19 @@
       <c r="Y102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z102" s="1" t="n">
+      <c r="AB102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4051,58 +3688,58 @@
       <c r="C104" s="1" t="n">
         <v>303728795</v>
       </c>
-      <c r="D104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G104" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N104" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W104" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X104" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA104" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB104" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH104" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,13 +3753,7 @@
       <c r="C105" s="1" t="n">
         <v>294329528</v>
       </c>
-      <c r="D105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="n">
+      <c r="G105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J105" s="1" t="n">
@@ -4131,13 +3762,7 @@
       <c r="K105" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T105" s="1" t="n">
+      <c r="P105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U105" s="1" t="n">
@@ -4146,7 +3771,13 @@
       <c r="X105" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AG105" s="1" t="n">
+      <c r="Y105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,10 +3791,10 @@
       <c r="C106" s="1" t="n">
         <v>300637730</v>
       </c>
-      <c r="G106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1" t="n">
+      <c r="Q106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4188,61 +3819,58 @@
       <c r="C108" s="1" t="n">
         <v>298838222</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G108" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N108" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P108" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T108" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U108" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W108" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y108" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AF108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,73 +3895,61 @@
       <c r="C110" s="1" t="n">
         <v>289953944</v>
       </c>
-      <c r="D110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G110" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N110" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T110" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U110" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W110" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA110" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB110" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4347,16 +3963,10 @@
       <c r="C111" s="1" t="n">
         <v>299066630</v>
       </c>
-      <c r="D111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="1" t="n">
+      <c r="H111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J111" s="1" t="n">
@@ -4365,40 +3975,46 @@
       <c r="K111" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N111" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q111" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T111" s="1" t="n">
+      <c r="R111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U111" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W111" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y111" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH111" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,73 +4028,61 @@
       <c r="C112" s="1" t="n">
         <v>306745321</v>
       </c>
-      <c r="D112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G112" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N112" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T112" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U112" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA112" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB112" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,70 +4118,58 @@
       <c r="C115" s="1" t="n">
         <v>301633835</v>
       </c>
-      <c r="D115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J115" s="1" t="n">
+      <c r="H115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,16 +4216,10 @@
       <c r="C119" s="1" t="n">
         <v>304326852</v>
       </c>
-      <c r="D119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" s="1" t="n">
+      <c r="H119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J119" s="1" t="n">
@@ -4642,43 +4228,19 @@
       <c r="K119" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="R119" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U119" s="1" t="n">
+      <c r="W119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X119" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB119" s="1" t="n">
+      <c r="AC119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD119" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,70 +4276,61 @@
       <c r="C122" s="1" t="n">
         <v>292550553</v>
       </c>
-      <c r="D122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G122" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" s="1" t="n">
+      <c r="K122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N122" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T122" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U122" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W122" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA122" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB122" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,73 +4355,55 @@
       <c r="C124" s="1" t="n">
         <v>284853399</v>
       </c>
-      <c r="D124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G124" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N124" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="P124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T124" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U124" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA124" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB124" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH124" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,73 +4428,61 @@
       <c r="C126" s="1" t="n">
         <v>286109921</v>
       </c>
-      <c r="D126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH126" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,13 +4496,13 @@
       <c r="C127" s="1" t="n">
         <v>295015160</v>
       </c>
-      <c r="D127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1" t="n">
+      <c r="G127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J127" s="1" t="n">
@@ -4988,55 +4511,46 @@
       <c r="K127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N127" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T127" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U127" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA127" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB127" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,16 +4612,22 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="H132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
+      <c r="K132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
+      <c r="Q132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
@@ -5119,12 +4639,14 @@
       <c r="Z132" s="3"/>
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
-      <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
+      <c r="AC132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD132" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AE132" s="3"/>
-      <c r="AF132" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF132" s="2"/>
       <c r="AG132" s="3"/>
       <c r="AH132" s="3"/>
     </row>
@@ -5171,9 +4693,6 @@
       <c r="C136" s="1" t="n">
         <v>287629660</v>
       </c>
-      <c r="D136" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
@@ -5207,13 +4726,10 @@
       <c r="C139" s="1" t="n">
         <v>293160295</v>
       </c>
-      <c r="J139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S139" s="1" t="n">
+      <c r="P139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,70 +4743,58 @@
       <c r="C140" s="1" t="n">
         <v>285360124</v>
       </c>
-      <c r="D140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G140" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N140" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R140" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T140" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U140" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W140" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X140" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA140" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB140" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG140" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH140" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,73 +4808,61 @@
       <c r="C141" s="1" t="n">
         <v>325260486</v>
       </c>
-      <c r="D141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5397,42 +4889,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH143">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-    <filterColumn colId="18" hiddenButton="1"/>
-    <filterColumn colId="19" hiddenButton="1"/>
-    <filterColumn colId="20" hiddenButton="1"/>
-    <filterColumn colId="21" hiddenButton="1"/>
-    <filterColumn colId="22" hiddenButton="1"/>
-    <filterColumn colId="23" hiddenButton="1"/>
-    <filterColumn colId="24" hiddenButton="1"/>
-    <filterColumn colId="25" hiddenButton="1"/>
-    <filterColumn colId="26" hiddenButton="1"/>
-    <filterColumn colId="27" hiddenButton="1"/>
-    <filterColumn colId="28" hiddenButton="1"/>
-    <filterColumn colId="29" hiddenButton="1"/>
-    <filterColumn colId="30" hiddenButton="1"/>
-    <filterColumn colId="31" hiddenButton="1"/>
-    <filterColumn colId="32" hiddenButton="1"/>
-    <filterColumn colId="33" hiddenButton="1"/>
-  </autoFilter>
+  <autoFilter ref="A1:AH143"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5452,29 +4909,21 @@
   <dimension ref="A1:AH143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="AI5" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="8" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="22" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="24" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="29" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="31" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="13" style="1" width="3.79"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5588,24 +5037,18 @@
       <c r="C2" s="1" t="n">
         <v>300362838</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5614,23 +5057,11 @@
       <c r="C3" s="1" t="n">
         <v>303530561</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -5641,7 +5072,7 @@
         <v>285738380</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -5652,7 +5083,7 @@
         <v>289953316</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -5663,7 +5094,7 @@
         <v>300813775</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -5674,7 +5105,7 @@
         <v>307498190</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -5685,7 +5116,7 @@
         <v>290649064</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -5695,8 +5126,11 @@
       <c r="C9" s="1" t="n">
         <v>285029908</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -5707,7 +5141,7 @@
         <v>294314008</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -5718,7 +5152,7 @@
         <v>288824520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -5729,7 +5163,7 @@
         <v>294458310</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -5740,7 +5174,7 @@
         <v>303197951</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -5751,7 +5185,7 @@
         <v>289996570</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -5762,7 +5196,7 @@
         <v>293154252</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -5773,7 +5207,7 @@
         <v>291482376</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -5784,7 +5218,7 @@
         <v>298828626</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -5795,7 +5229,7 @@
         <v>284615846</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -5806,7 +5240,7 @@
         <v>306436043</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -5815,6 +5249,12 @@
       </c>
       <c r="C20" s="1" t="n">
         <v>303282355</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,16 +5267,10 @@
       <c r="C21" s="1" t="n">
         <v>306150352</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="n">
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="n">
@@ -5845,47 +5279,38 @@
       <c r="K21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1" t="n">
+      <c r="O21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="1" t="n">
+      <c r="W21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AG21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -5906,38 +5331,32 @@
       <c r="C23" s="1" t="n">
         <v>297621556</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -5948,7 +5367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -5959,7 +5378,7 @@
         <v>285685376</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -5980,70 +5399,58 @@
       <c r="C27" s="1" t="n">
         <v>305801384</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="n">
+      <c r="K27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6057,25 +5464,28 @@
       <c r="C28" s="1" t="n">
         <v>291209890</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="n">
+      <c r="K28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="1" t="n">
@@ -6084,31 +5494,25 @@
       <c r="R28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="1" t="n">
+      <c r="W28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6144,70 +5548,55 @@
       <c r="C31" s="1" t="n">
         <v>304866814</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X31" s="1" t="n">
+      <c r="W31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AB31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6221,67 +5610,58 @@
       <c r="C32" s="1" t="n">
         <v>288353005</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G32" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1" t="n">
+      <c r="K32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U32" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W32" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="1" t="n">
+      <c r="AB32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6298,31 +5678,25 @@
       <c r="G33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1" t="n">
+      <c r="H33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="1" t="n">
+      <c r="W33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,70 +5798,58 @@
       <c r="C42" s="1" t="n">
         <v>286049732</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="1" t="n">
+      <c r="AC42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6567,16 +5929,10 @@
       <c r="C49" s="1" t="n">
         <v>296838098</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="n">
+      <c r="H49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J49" s="1" t="n">
@@ -6585,40 +5941,37 @@
       <c r="K49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1" t="n">
+      <c r="O49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T49" s="1" t="n">
+      <c r="R49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X49" s="1" t="n">
+      <c r="W49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6632,9 +5985,6 @@
       <c r="C50" s="1" t="n">
         <v>304289027</v>
       </c>
-      <c r="Z50" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
@@ -6646,13 +5996,13 @@
       <c r="C51" s="1" t="n">
         <v>295962968</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="n">
+      <c r="G51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="n">
@@ -6661,13 +6011,10 @@
       <c r="K51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1" t="n">
+      <c r="O51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q51" s="1" t="n">
@@ -6676,40 +6023,19 @@
       <c r="R51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6778,19 +6104,28 @@
       <c r="C57" s="1" t="n">
         <v>290733480</v>
       </c>
+      <c r="H57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="U57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X57" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Y57" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6815,16 +6150,10 @@
       <c r="C59" s="1" t="n">
         <v>294086803</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="n">
+      <c r="H59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J59" s="1" t="n">
@@ -6833,13 +6162,10 @@
       <c r="K59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" s="1" t="n">
+      <c r="O59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="1" t="n">
@@ -6848,37 +6174,13 @@
       <c r="R59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB59" s="1" t="n">
+      <c r="AC59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6892,67 +6194,49 @@
       <c r="C60" s="1" t="n">
         <v>293669155</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G60" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N60" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T60" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="1" t="n">
+      <c r="W60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6966,16 +6250,10 @@
       <c r="C61" s="1" t="n">
         <v>294138170</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="n">
+      <c r="H61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J61" s="1" t="n">
@@ -6984,19 +6262,16 @@
       <c r="K61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" s="1" t="n">
+      <c r="O61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X61" s="1" t="n">
@@ -7005,16 +6280,16 @@
       <c r="Y61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH61" s="1" t="n">
+      <c r="AC61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7061,16 +6336,10 @@
       <c r="C65" s="1" t="n">
         <v>306151197</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="n">
+      <c r="H65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J65" s="1" t="n">
@@ -7079,13 +6348,10 @@
       <c r="K65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1" t="n">
+      <c r="O65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q65" s="1" t="n">
@@ -7094,28 +6360,25 @@
       <c r="R65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB65" s="1" t="n">
+      <c r="W65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,6 +6414,12 @@
       <c r="C68" s="1" t="n">
         <v>304693057</v>
       </c>
+      <c r="U68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X68" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -7162,6 +6431,9 @@
       <c r="C69" s="1" t="n">
         <v>300369077</v>
       </c>
+      <c r="X69" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -7184,13 +6456,25 @@
       <c r="C71" s="1" t="n">
         <v>284684813</v>
       </c>
-      <c r="Q71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="1" t="n">
+      <c r="G71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7215,6 +6499,9 @@
       <c r="C73" s="1" t="n">
         <v>306282100</v>
       </c>
+      <c r="AB73" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
@@ -7270,40 +6557,31 @@
       <c r="C78" s="1" t="n">
         <v>284925683</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="n">
+      <c r="H78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q78" s="1" t="n">
+      <c r="O78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S78" s="1" t="n">
+      <c r="U78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X78" s="1" t="n">
@@ -7312,22 +6590,16 @@
       <c r="Y78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB78" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AF78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7451,55 +6723,22 @@
       <c r="C89" s="1" t="n">
         <v>298838125</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" s="1" t="n">
+      <c r="H89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U89" s="1" t="n">
+      <c r="X89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH89" s="1" t="n">
+      <c r="AC89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7513,13 +6752,10 @@
       <c r="C90" s="1" t="n">
         <v>290072883</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="n">
+      <c r="H90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J90" s="1" t="n">
@@ -7528,13 +6764,10 @@
       <c r="K90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" s="1" t="n">
+      <c r="O90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q90" s="1" t="n">
@@ -7543,34 +6776,25 @@
       <c r="R90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U90" s="1" t="n">
+      <c r="W90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB90" s="1" t="n">
+      <c r="AC90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7584,28 +6808,25 @@
       <c r="C91" s="1" t="n">
         <v>300252730</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" s="1" t="n">
+      <c r="O91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q91" s="1" t="n">
@@ -7614,25 +6835,25 @@
       <c r="R91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U91" s="1" t="n">
+      <c r="W91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AB91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH91" s="1" t="n">
+      <c r="AC91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7646,15 +6867,6 @@
       <c r="C92" s="1" t="n">
         <v>297031724</v>
       </c>
-      <c r="K92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S92" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
@@ -7688,60 +6900,6 @@
       <c r="C95" s="1" t="n">
         <v>291519180</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH95" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -7786,70 +6944,46 @@
       <c r="C99" s="1" t="n">
         <v>298986752</v>
       </c>
-      <c r="D99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7885,46 +7019,31 @@
       <c r="C102" s="1" t="n">
         <v>305302639</v>
       </c>
+      <c r="G102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M102" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T102" s="1" t="n">
+      <c r="O102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH102" s="1" t="n">
+      <c r="X102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,55 +7112,22 @@
       <c r="C108" s="1" t="n">
         <v>298838222</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="1" t="n">
+      <c r="H108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U108" s="1" t="n">
+      <c r="X108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH108" s="1" t="n">
+      <c r="AC108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8066,13 +7152,10 @@
       <c r="C110" s="1" t="n">
         <v>289953944</v>
       </c>
-      <c r="D110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="n">
+      <c r="H110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J110" s="1" t="n">
@@ -8081,13 +7164,10 @@
       <c r="K110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" s="1" t="n">
+      <c r="O110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q110" s="1" t="n">
@@ -8096,28 +7176,22 @@
       <c r="R110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U110" s="1" t="n">
+      <c r="W110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG110" s="1" t="n">
+      <c r="AC110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8153,16 +7227,10 @@
       <c r="C113" s="1" t="n">
         <v>292633963</v>
       </c>
-      <c r="D113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="1" t="n">
+      <c r="H113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J113" s="1" t="n">
@@ -8171,46 +7239,46 @@
       <c r="K113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T113" s="1" t="n">
+      <c r="O113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U113" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W113" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA113" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AB113" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AG113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH113" s="1" t="n">
+      <c r="AF113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8235,61 +7303,58 @@
       <c r="C115" s="1" t="n">
         <v>301633835</v>
       </c>
-      <c r="D115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J115" s="1" t="n">
+      <c r="H115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T115" s="1" t="n">
+      <c r="R115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8360,7 +7425,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -8368,6 +7433,24 @@
       </c>
       <c r="C122" s="1" t="n">
         <v>292550553</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,13 +7507,22 @@
       <c r="C127" s="1" t="n">
         <v>295015160</v>
       </c>
-      <c r="D127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" s="1" t="n">
+      <c r="N127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AB127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8488,9 +7580,6 @@
       <c r="C132" s="1" t="n">
         <v>295083212</v>
       </c>
-      <c r="K132" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
@@ -8557,61 +7646,61 @@
       <c r="C138" s="1" t="n">
         <v>291624650</v>
       </c>
-      <c r="D138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="G138" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N138" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Q138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T138" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U138" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="W138" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="X138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA138" s="1" t="n">
+      <c r="Y138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AB138" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AC138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD138" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8625,40 +7714,25 @@
       <c r="C139" s="1" t="n">
         <v>293160295</v>
       </c>
-      <c r="E139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="N139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q139" s="1" t="n">
+      <c r="P139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T139" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB139" s="1" t="n">
+      <c r="W139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8695,7 +7769,7 @@
         <v>319224287</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>183</v>
       </c>
